--- a/biology/Médecine/Palais_osseux/Palais_osseux.xlsx
+++ b/biology/Médecine/Palais_osseux/Palais_osseux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le palais osseux est la partie osseuse du palais dur. Il est situé au niveau de la partie antérieure de la base externe du crâne. Il sépare la cavité nasale de la cavité buccale.
 </t>
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est formé de 2 pièces osseuses:
 le processus palatin de l'os maxillaire pour les deux tiers antérieurs.
@@ -548,7 +562,9 @@
           <t>Phonétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le palais dur est également une référence en phonétique, considéré comme un lieu d'articulation pour les consonnes palatales.
 </t>
